--- a/docs/MainMemoryChart.xlsx
+++ b/docs/MainMemoryChart.xlsx
@@ -163,14 +163,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -376,34 +373,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024</c:v>
+                  <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048</c:v>
+                  <c:v>524288</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096</c:v>
+                  <c:v>2097152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192</c:v>
+                  <c:v>8388608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,34 +527,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024</c:v>
+                  <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048</c:v>
+                  <c:v>524288</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096</c:v>
+                  <c:v>2097152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192</c:v>
+                  <c:v>8388608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -611,16 +608,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173064992"/>
-        <c:axId val="173065384"/>
+        <c:axId val="158634816"/>
+        <c:axId val="158639296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173064992"/>
+        <c:axId val="158634816"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="8192"/>
-          <c:min val="16"/>
+          <c:min val="32"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -726,12 +722,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173065384"/>
+        <c:crossAx val="158639296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173065384"/>
+        <c:axId val="158639296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -839,7 +835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173064992"/>
+        <c:crossAx val="158634816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1113,34 +1109,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024</c:v>
+                  <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048</c:v>
+                  <c:v>524288</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096</c:v>
+                  <c:v>2097152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192</c:v>
+                  <c:v>8388608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,34 +1263,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024</c:v>
+                  <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048</c:v>
+                  <c:v>524288</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096</c:v>
+                  <c:v>2097152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192</c:v>
+                  <c:v>8388608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,34 +1417,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024</c:v>
+                  <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048</c:v>
+                  <c:v>524288</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096</c:v>
+                  <c:v>2097152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192</c:v>
+                  <c:v>8388608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,34 +1571,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024</c:v>
+                  <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048</c:v>
+                  <c:v>524288</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096</c:v>
+                  <c:v>2097152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192</c:v>
+                  <c:v>8388608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1729,34 +1725,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024</c:v>
+                  <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048</c:v>
+                  <c:v>524288</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096</c:v>
+                  <c:v>2097152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192</c:v>
+                  <c:v>8388608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1883,34 +1879,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>512</c:v>
+                  <c:v>32768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1024</c:v>
+                  <c:v>131072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048</c:v>
+                  <c:v>524288</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4096</c:v>
+                  <c:v>2097152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8192</c:v>
+                  <c:v>8388608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1964,16 +1960,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173066168"/>
-        <c:axId val="173066560"/>
+        <c:axId val="158780584"/>
+        <c:axId val="158714216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173066168"/>
+        <c:axId val="158780584"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="8192"/>
-          <c:min val="16"/>
+          <c:min val="32"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2045,7 +2040,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2079,12 +2074,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173066560"/>
+        <c:crossAx val="158714216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173066560"/>
+        <c:axId val="158714216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2192,7 +2187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173066168"/>
+        <c:crossAx val="158780584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3697,10 +3692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3709,53 +3704,71 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="G1">
+        <v>32</v>
+      </c>
+      <c r="H1">
+        <v>128</v>
+      </c>
+      <c r="I1">
+        <v>512</v>
+      </c>
+      <c r="J1">
+        <v>2048</v>
+      </c>
+      <c r="K1">
+        <v>8192</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D2" s="3">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="E2" s="3">
-        <v>128</v>
+        <v>2048</v>
       </c>
       <c r="F2" s="3">
-        <v>256</v>
+        <v>8192</v>
       </c>
       <c r="G2" s="3">
-        <v>512</v>
+        <v>32768</v>
       </c>
       <c r="H2" s="3">
-        <v>1024</v>
+        <v>131072</v>
       </c>
       <c r="I2" s="3">
-        <v>2048</v>
+        <v>524288</v>
       </c>
       <c r="J2" s="3">
-        <v>4096</v>
+        <v>2097152</v>
       </c>
       <c r="K2" s="3">
-        <v>8192</v>
-      </c>
-      <c r="M2" s="5" t="s">
+        <v>8388608</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3789,16 +3802,16 @@
       <c r="K3">
         <v>303.56644399999999</v>
       </c>
-      <c r="M3" s="7">
-        <f>SUM(B3:K3)</f>
+      <c r="M3" s="6">
+        <f t="shared" ref="M3:M10" si="0">SUM(B3:K3)</f>
         <v>2340.0677529999998</v>
       </c>
-      <c r="N3" s="8">
-        <f>AVERAGE(B3:K3)</f>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N10" si="1">AVERAGE(B3:K3)</f>
         <v>234.00677529999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3832,16 +3845,16 @@
       <c r="K4">
         <v>48.727142000000001</v>
       </c>
-      <c r="M4" s="7">
-        <f>SUM(B4:K4)</f>
+      <c r="M4" s="6">
+        <f t="shared" si="0"/>
         <v>2396.519393</v>
       </c>
-      <c r="N4" s="8">
-        <f>AVERAGE(B4:K4)</f>
+      <c r="N4" s="7">
+        <f t="shared" si="1"/>
         <v>239.65193930000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3875,16 +3888,16 @@
       <c r="K5">
         <v>286.67636599999997</v>
       </c>
-      <c r="M5" s="7">
-        <f>SUM(B5:K5)</f>
+      <c r="M5" s="6">
+        <f t="shared" si="0"/>
         <v>2588.93642</v>
       </c>
-      <c r="N5" s="8">
-        <f>AVERAGE(B5:K5)</f>
+      <c r="N5" s="7">
+        <f t="shared" si="1"/>
         <v>258.893642</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3918,16 +3931,16 @@
       <c r="K6">
         <v>425.27851199999998</v>
       </c>
-      <c r="M6" s="7">
-        <f>SUM(B6:K6)</f>
+      <c r="M6" s="6">
+        <f t="shared" si="0"/>
         <v>3876.3886320000001</v>
       </c>
-      <c r="N6" s="8">
-        <f>AVERAGE(B6:K6)</f>
+      <c r="N6" s="7">
+        <f t="shared" si="1"/>
         <v>387.6388632</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3961,16 +3974,16 @@
       <c r="K7">
         <v>77.949222000000006</v>
       </c>
-      <c r="M7" s="7">
-        <f>SUM(B7:K7)</f>
+      <c r="M7" s="6">
+        <f t="shared" si="0"/>
         <v>3012.6295240000004</v>
       </c>
-      <c r="N7" s="8">
-        <f>AVERAGE(B7:K7)</f>
+      <c r="N7" s="7">
+        <f t="shared" si="1"/>
         <v>301.26295240000002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4004,16 +4017,16 @@
       <c r="K8">
         <v>401.86439999999999</v>
       </c>
-      <c r="M8" s="7">
-        <f>SUM(B8:K8)</f>
+      <c r="M8" s="6">
+        <f t="shared" si="0"/>
         <v>3777.9091930000004</v>
       </c>
-      <c r="N8" s="8">
-        <f>AVERAGE(B8:K8)</f>
+      <c r="N8" s="7">
+        <f t="shared" si="1"/>
         <v>377.79091930000004</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4047,16 +4060,16 @@
       <c r="K9">
         <v>77.569682</v>
       </c>
-      <c r="M9" s="7">
-        <f>SUM(B9:K9)</f>
+      <c r="M9" s="6">
+        <f t="shared" si="0"/>
         <v>3006.5075649999994</v>
       </c>
-      <c r="N9" s="8">
-        <f>AVERAGE(B9:K9)</f>
+      <c r="N9" s="7">
+        <f t="shared" si="1"/>
         <v>300.65075649999994</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4090,20 +4103,17 @@
       <c r="K10">
         <v>309.75562100000002</v>
       </c>
-      <c r="M10" s="9">
-        <f>SUM(B10:K10)</f>
+      <c r="M10" s="8">
+        <f t="shared" si="0"/>
         <v>3813.3041970000004</v>
       </c>
-      <c r="N10" s="10">
-        <f>AVERAGE(B10:K10)</f>
+      <c r="N10" s="9">
+        <f t="shared" si="1"/>
         <v>381.33041970000005</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
